--- a/cau_hoi_tra_loi.xlsx
+++ b/cau_hoi_tra_loi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\ccvc_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B143B0-4FCC-4ADC-BE2A-0395FE87BC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684C54C5-D9C5-45F5-A315-410FD413EE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Câu hỏi mẫu</t>
   </si>
@@ -161,6 +161,33 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1SmFtEEqi8ornKmLl4mZsElW49p4zZkxH/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Lỗi đồng bộ: Đào tạo bôi dưỡng</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1N2fq9B4tWexeeg_0k4n7SO2sqLLlBngS/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Cảnh báo luân chuyển điều động</t>
+  </si>
+  <si>
+    <t>Lỗi không đủ điều kiện đồng bộ: Thông tin gia đình</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RZIokbEHkGu20Va_Y2A_V-Oh_Y9o1f5r/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Lỗi đồng bộ: Khen thưởng kỷ luật</t>
+  </si>
+  <si>
+    <t>Lỗi đồng bộ: Quan hệ gia đình bản thân không được để trống</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rBs1Cht1bhUr6Dsue52uU6N3dL5bqM7u/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>Cảnh báo không đủ điều kiện đồng bộ: Quốc phòng an ninh, lý luận chính trị, Chuyên môn, quản lý nhà nước</t>
   </si>
 </sst>
 </file>
@@ -535,7 +562,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:Z1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1218,8 +1245,12 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1246,8 +1277,12 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1274,8 +1309,12 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1302,8 +1341,12 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1330,8 +1373,12 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1357,9 +1404,13 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
+    <row r="27" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -28631,12 +28682,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{86A0769D-ACD6-46EC-98D9-410D998E6598}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E5A49903-AD2F-4389-B4D8-1CAA191AE40D}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{E1B1BB9A-A68E-4E19-8E96-9094521AA986}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{32D66E83-17D1-46CA-ACBA-1B986C06B612}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3B5B2C61-6CC8-4C97-B63C-63FA67188ACC}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{047487BD-8BD8-4937-BD37-1C2A9B26D864}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{8F98BBBD-DEA4-48A6-862B-0FF172EE628D}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{98597D4E-5A73-410E-B578-466FF6F6AA39}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{A91B1F14-9243-48DC-B481-39131DF2378D}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{D47BC5D5-E367-4445-97E7-98AB86E6FAC4}"/>
+    <hyperlink ref="B24" r:id="rId7" xr:uid="{08AB0D75-D5FD-4C7C-A3E6-4672A7438201}"/>
+    <hyperlink ref="B25" r:id="rId8" xr:uid="{EEE00F80-6E99-4C89-8FD3-056789F10C9F}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{9F4A5893-E5F9-4C30-8C9C-44C2E74963A2}"/>
+    <hyperlink ref="B27" r:id="rId10" xr:uid="{E4AFC0F1-A2B8-40F3-9A51-98987A653872}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/cau_hoi_tra_loi.xlsx
+++ b/cau_hoi_tra_loi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\ccvc_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684C54C5-D9C5-45F5-A315-410FD413EE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6DA8CB-C0B5-4773-A589-89FA589F985B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Câu hỏi mẫu</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1N2fq9B4tWexeeg_0k4n7SO2sqLLlBngS/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>Cảnh báo luân chuyển điều động</t>
   </si>
   <si>
     <t>Lỗi không đủ điều kiện đồng bộ: Thông tin gia đình</t>
@@ -562,7 +559,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z1000"/>
+      <selection activeCell="B17" sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1281,7 +1278,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1310,10 +1307,10 @@
     </row>
     <row r="24" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1345,7 +1342,7 @@
         <v>47</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1372,12 +1369,12 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1404,13 +1401,9 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>43</v>
-      </c>
+    <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -28682,18 +28675,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3B5B2C61-6CC8-4C97-B63C-63FA67188ACC}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{047487BD-8BD8-4937-BD37-1C2A9B26D864}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{8F98BBBD-DEA4-48A6-862B-0FF172EE628D}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{98597D4E-5A73-410E-B578-466FF6F6AA39}"/>
-    <hyperlink ref="B22" r:id="rId5" xr:uid="{A91B1F14-9243-48DC-B481-39131DF2378D}"/>
-    <hyperlink ref="B23" r:id="rId6" xr:uid="{D47BC5D5-E367-4445-97E7-98AB86E6FAC4}"/>
-    <hyperlink ref="B24" r:id="rId7" xr:uid="{08AB0D75-D5FD-4C7C-A3E6-4672A7438201}"/>
-    <hyperlink ref="B25" r:id="rId8" xr:uid="{EEE00F80-6E99-4C89-8FD3-056789F10C9F}"/>
-    <hyperlink ref="B26" r:id="rId9" xr:uid="{9F4A5893-E5F9-4C30-8C9C-44C2E74963A2}"/>
-    <hyperlink ref="B27" r:id="rId10" xr:uid="{E4AFC0F1-A2B8-40F3-9A51-98987A653872}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{814B12AC-A887-49DE-9002-5A8E2A8E09A6}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{008CAE84-22B8-4EE2-B323-28DA326C263F}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{2A3B71AD-BF71-46BC-A339-CCA9EB8B6201}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{F8039FAC-2B76-402D-AFDC-B1F0DE759C77}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{76DF1B4D-6C52-45E4-8E59-7E815C385715}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{359B0FC1-F497-42BF-8346-E2F0715203AE}"/>
+    <hyperlink ref="B24" r:id="rId7" xr:uid="{6CA73E2F-52E4-48D3-987E-DB0E8A136705}"/>
+    <hyperlink ref="B25" r:id="rId8" xr:uid="{B3C458C7-5D1C-41E5-A68D-111FC28696E4}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{E910D87F-407F-44E2-8797-8D8C9056382E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/cau_hoi_tra_loi.xlsx
+++ b/cau_hoi_tra_loi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\ccvc_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6DA8CB-C0B5-4773-A589-89FA589F985B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFB3401-D865-4F59-B62E-E964D5BD54ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Câu hỏi mẫu</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>Cảnh báo không đủ điều kiện đồng bộ: Quốc phòng an ninh, lý luận chính trị, Chuyên môn, quản lý nhà nước</t>
+  </si>
+  <si>
+    <t>Link cài VNPT plugin</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/scl/fi/l7ruliiu313bbx12mjanz/vnpt-ca-plugin_office_setup_1.0.4.3.exe?rlkey=ty16otwdf8sbdfcn65sn9kh2a&amp;e=1</t>
+  </si>
+  <si>
+    <t>Link cài VGCA plugin</t>
+  </si>
+  <si>
+    <t>https://dichvucong.ca.gov.vn/page/taitainguyen/PM</t>
   </si>
 </sst>
 </file>
@@ -558,8 +570,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="A1:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:Z999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1401,9 +1413,13 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9"/>
+    <row r="27" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1430,8 +1446,12 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1542,8 +1562,8 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -28675,17 +28695,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{814B12AC-A887-49DE-9002-5A8E2A8E09A6}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{008CAE84-22B8-4EE2-B323-28DA326C263F}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{2A3B71AD-BF71-46BC-A339-CCA9EB8B6201}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{F8039FAC-2B76-402D-AFDC-B1F0DE759C77}"/>
-    <hyperlink ref="B22" r:id="rId5" xr:uid="{76DF1B4D-6C52-45E4-8E59-7E815C385715}"/>
-    <hyperlink ref="B23" r:id="rId6" xr:uid="{359B0FC1-F497-42BF-8346-E2F0715203AE}"/>
-    <hyperlink ref="B24" r:id="rId7" xr:uid="{6CA73E2F-52E4-48D3-987E-DB0E8A136705}"/>
-    <hyperlink ref="B25" r:id="rId8" xr:uid="{B3C458C7-5D1C-41E5-A68D-111FC28696E4}"/>
-    <hyperlink ref="B26" r:id="rId9" xr:uid="{E910D87F-407F-44E2-8797-8D8C9056382E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D85D5886-C526-4665-96F3-52A796E3B86F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{E3DF827C-4BD6-4065-84E8-AAEA5B5DD46C}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{989D2FFE-B3CF-4A71-B250-F8887018EDEB}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{B54905A4-4596-476A-8866-77C2CF0FAFD1}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{62E1BB2A-6F91-4EFA-B074-BC4BC9151AA7}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{B4E62C15-A062-4530-A42C-78D5DB57D00C}"/>
+    <hyperlink ref="B24" r:id="rId7" xr:uid="{145780AB-F1D0-4263-ADFD-08D97EA7B788}"/>
+    <hyperlink ref="B25" r:id="rId8" xr:uid="{37E6FAC2-54C6-4882-BCD4-BFF811AC4235}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{CBAB3993-9567-49C6-9472-8FDE4A775DE5}"/>
+    <hyperlink ref="B27" r:id="rId10" xr:uid="{04A42D64-69DB-4E0B-85EF-02EC7BE170C0}"/>
+    <hyperlink ref="B28" r:id="rId11" xr:uid="{B3EF11BA-5899-4739-8B0F-4294AB4AE4E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/cau_hoi_tra_loi.xlsx
+++ b/cau_hoi_tra_loi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\ccvc_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFB3401-D865-4F59-B62E-E964D5BD54ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C55A6EA-2A57-4DE6-8647-C57E89ACE368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Câu hỏi mẫu</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>https://dichvucong.ca.gov.vn/page/taitainguyen/PM</t>
+  </si>
+  <si>
+    <t>Hồ sơ này đã thực hiện thao tác chuyển hồ sơ từ xác nhận về soạn thảo, và có xuất hiện nhiều biến động nhân sự (hợp đồng, phụ lục, biến động nhân sự)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1V3Mmr3mKBsVRlnPzVtNUUZEZQwpmGZxx/view?usp=drive_link</t>
   </si>
 </sst>
 </file>
@@ -570,8 +576,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:Z999"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A14" sqref="A1:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1477,9 +1483,13 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
+    <row r="29" spans="1:26" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -28695,19 +28705,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D85D5886-C526-4665-96F3-52A796E3B86F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E3DF827C-4BD6-4065-84E8-AAEA5B5DD46C}"/>
-    <hyperlink ref="B19" r:id="rId3" xr:uid="{989D2FFE-B3CF-4A71-B250-F8887018EDEB}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{B54905A4-4596-476A-8866-77C2CF0FAFD1}"/>
-    <hyperlink ref="B22" r:id="rId5" xr:uid="{62E1BB2A-6F91-4EFA-B074-BC4BC9151AA7}"/>
-    <hyperlink ref="B23" r:id="rId6" xr:uid="{B4E62C15-A062-4530-A42C-78D5DB57D00C}"/>
-    <hyperlink ref="B24" r:id="rId7" xr:uid="{145780AB-F1D0-4263-ADFD-08D97EA7B788}"/>
-    <hyperlink ref="B25" r:id="rId8" xr:uid="{37E6FAC2-54C6-4882-BCD4-BFF811AC4235}"/>
-    <hyperlink ref="B26" r:id="rId9" xr:uid="{CBAB3993-9567-49C6-9472-8FDE4A775DE5}"/>
-    <hyperlink ref="B27" r:id="rId10" xr:uid="{04A42D64-69DB-4E0B-85EF-02EC7BE170C0}"/>
-    <hyperlink ref="B28" r:id="rId11" xr:uid="{B3EF11BA-5899-4739-8B0F-4294AB4AE4E2}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DFF2A7CB-9629-4472-BBB7-F46242D4F419}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{398B9A18-9DF1-4752-8E81-CB9781AA33C5}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{7DB23494-5469-48D4-BEB3-9A13D04E8415}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{4370FF66-915E-491B-8227-F8F5B8F48728}"/>
+    <hyperlink ref="B22" r:id="rId5" xr:uid="{AED5611D-E66B-4D4F-BA71-25E2C24A8225}"/>
+    <hyperlink ref="B23" r:id="rId6" xr:uid="{3BC4FED9-EF1A-4482-A05E-50EE8BAB7A01}"/>
+    <hyperlink ref="B24" r:id="rId7" xr:uid="{3AF50024-1524-4D21-884A-A78877BE39B8}"/>
+    <hyperlink ref="B25" r:id="rId8" xr:uid="{3CB5D2C3-D689-4207-9E93-6DB7389BA047}"/>
+    <hyperlink ref="B26" r:id="rId9" xr:uid="{55452F1E-BF7C-41A6-A344-56CE1416208C}"/>
+    <hyperlink ref="B27" r:id="rId10" xr:uid="{A0532967-3340-4FEF-8903-52E9A09D9454}"/>
+    <hyperlink ref="B28" r:id="rId11" xr:uid="{FF545AAE-97D3-46F2-9BDC-7978D044A747}"/>
+    <hyperlink ref="B29" r:id="rId12" xr:uid="{0D990841-8B51-4BFB-8F7A-E34888E9A8FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>